--- a/staticfiles/assets/Planilla_de_vuelo.xlsx
+++ b/staticfiles/assets/Planilla_de_vuelo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eberc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\bomberos_production\web\static\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1189,6 +1189,303 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1207,15 +1504,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1243,6 +1531,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1252,317 +1558,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,7 +1601,7 @@
         <xdr:cNvPr id="3" name="Cuadro de texto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D65B2D5-7B7B-4678-8118-16448A6EE29B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D65B2D5-7B7B-4678-8118-16448A6EE29B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1845,7 @@
         <xdr:cNvPr id="5" name="Elipse 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7DF052B-B196-4D08-AC29-767E6DBEB26F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DF052B-B196-4D08-AC29-767E6DBEB26F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1911,7 @@
         <xdr:cNvPr id="6" name="Elipse 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E181C6F-DECC-450B-BD5B-C1AC447F7508}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E181C6F-DECC-450B-BD5B-C1AC447F7508}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1977,7 @@
         <xdr:cNvPr id="7" name="Elipse 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C4CB99C-407C-441E-A6F2-8075AE3BD500}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4CB99C-407C-441E-A6F2-8075AE3BD500}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2043,7 @@
         <xdr:cNvPr id="8" name="Elipse 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{803D97C8-694E-475A-9862-E02F16A7ACD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803D97C8-694E-475A-9862-E02F16A7ACD3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2109,7 @@
         <xdr:cNvPr id="9" name="Elipse 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5008323B-BE2C-4E3D-93A6-00A8181A6039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5008323B-BE2C-4E3D-93A6-00A8181A6039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2175,7 +2175,7 @@
         <xdr:cNvPr id="10" name="Elipse 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25017823-2820-44D2-A9A4-B7F72D823238}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25017823-2820-44D2-A9A4-B7F72D823238}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2241,7 @@
         <xdr:cNvPr id="11" name="Elipse 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AAC5B7B-6E2D-45EA-B1FD-5797744B33CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAC5B7B-6E2D-45EA-B1FD-5797744B33CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2307,7 @@
         <xdr:cNvPr id="12" name="Elipse 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B72784C9-F81A-4383-B99F-4692D5DC6D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B72784C9-F81A-4383-B99F-4692D5DC6D4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2373,7 @@
         <xdr:cNvPr id="14" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C83E07E-F34B-4277-AD64-91AFA9575C8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C83E07E-F34B-4277-AD64-91AFA9575C8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,7 +2422,7 @@
         <xdr:cNvPr id="15" name="Elipse 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA8E2782-AF5C-474F-B584-E9EC8AE9DC70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8E2782-AF5C-474F-B584-E9EC8AE9DC70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2488,7 @@
         <xdr:cNvPr id="16" name="CuadroTexto 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E909A4A-3812-4807-B901-5CECA357C353}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E909A4A-3812-4807-B901-5CECA357C353}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2553,7 @@
         <xdr:cNvPr id="17" name="CuadroTexto 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{536B09B7-80BD-48F3-9603-60C161385058}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{536B09B7-80BD-48F3-9603-60C161385058}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2618,7 @@
         <xdr:cNvPr id="18" name="CuadroTexto 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D50E2F6D-3BDE-4C00-B07D-7F2D6F94BA1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50E2F6D-3BDE-4C00-B07D-7F2D6F94BA1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2683,7 @@
         <xdr:cNvPr id="20" name="Conector recto 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7D8DA98-B6CF-494A-9A47-218288BD5300}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D8DA98-B6CF-494A-9A47-218288BD5300}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,7 +2733,7 @@
         <xdr:cNvPr id="22" name="Conector recto 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{48A8AB6D-B566-4624-965A-A2F044CFA150}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A8AB6D-B566-4624-965A-A2F044CFA150}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2783,7 @@
         <xdr:cNvPr id="23" name="Conector recto 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{495CCCB5-1285-4B87-87E2-CDEFA0009D11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495CCCB5-1285-4B87-87E2-CDEFA0009D11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2833,7 +2833,7 @@
         <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DD7E0E5-91A8-4CD4-8DCA-983542FF148B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD7E0E5-91A8-4CD4-8DCA-983542FF148B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3170,8 +3170,8 @@
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3191,308 +3191,308 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="89.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
     </row>
     <row r="2" spans="1:18" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="121" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="122" t="s">
+      <c r="P2" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="123"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
     </row>
     <row r="3" spans="1:18" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="116"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="118"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="124"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="126"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="49"/>
     </row>
     <row r="4" spans="1:18" ht="28.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="107"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
       <c r="N4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="127"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="129"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="52"/>
     </row>
     <row r="5" spans="1:18" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="59" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="114" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="78" t="s">
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="94" t="s">
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="95"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="100"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="115"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="100"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="46"/>
     </row>
     <row r="7" spans="1:18" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="74"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="128"/>
       <c r="F7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
       <c r="N7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="93" t="s">
+      <c r="O7" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="92"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="74"/>
     </row>
     <row r="8" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="130" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="133" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="134" t="s">
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="136"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="97"/>
     </row>
     <row r="9" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="137" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140" t="s">
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="100"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46"/>
     </row>
     <row r="10" spans="1:18" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="142" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="140" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="100"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="46"/>
     </row>
     <row r="11" spans="1:18" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="144" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="147" t="s">
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="102"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="78"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="65" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="65" t="s">
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="67"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="111"/>
     </row>
     <row r="13" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -3535,14 +3535,14 @@
       <c r="N13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="68" t="s">
+      <c r="O13" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68" t="s">
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="72"/>
+      <c r="R13" s="127"/>
     </row>
     <row r="14" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3585,14 +3585,14 @@
       <c r="N14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="56" t="s">
+      <c r="O14" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56" t="s">
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="100"/>
+      <c r="R14" s="46"/>
     </row>
     <row r="15" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -3635,14 +3635,14 @@
       <c r="N15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="56" t="s">
+      <c r="O15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56" t="s">
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="100"/>
+      <c r="R15" s="46"/>
     </row>
     <row r="16" spans="1:18" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -3685,14 +3685,14 @@
       <c r="N16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="56" t="s">
+      <c r="O16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56" t="s">
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="R16" s="100"/>
+      <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -3711,12 +3711,12 @@
         <v>40</v>
       </c>
       <c r="F17" s="16"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="126"/>
       <c r="M17" s="5" t="s">
         <v>36</v>
       </c>
@@ -3729,464 +3729,464 @@
       <c r="P17" s="27">
         <v>50</v>
       </c>
-      <c r="Q17" s="101">
+      <c r="Q17" s="77">
         <v>25</v>
       </c>
-      <c r="R17" s="102"/>
+      <c r="R17" s="78"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="74"/>
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
     </row>
     <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73" t="s">
+      <c r="C20" s="91"/>
+      <c r="D20" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="73"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="73" t="s">
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="88" t="s">
+      <c r="P20" s="91"/>
+      <c r="Q20" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="R20" s="89"/>
+      <c r="R20" s="93"/>
     </row>
     <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="56" t="s">
+      <c r="C21" s="155"/>
+      <c r="D21" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="56"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="52" t="s">
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="54"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="120"/>
     </row>
     <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="52" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="55"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="54"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="120"/>
     </row>
     <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
       <c r="F23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="149" t="s">
+      <c r="G23" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="150"/>
-      <c r="O23" s="150"/>
-      <c r="P23" s="150"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="151"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="147"/>
     </row>
     <row r="24" spans="1:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="153"/>
-      <c r="Q24" s="153"/>
-      <c r="R24" s="154"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="150"/>
     </row>
     <row r="25" spans="1:18" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="48"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="144"/>
     </row>
     <row r="26" spans="1:18" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="42"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="137"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="138"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="155"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="155"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="155"/>
-      <c r="R28" s="155"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="155"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="155"/>
-      <c r="R29" s="155"/>
+      <c r="A29" s="129"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="155"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155"/>
-      <c r="P30" s="155"/>
-      <c r="Q30" s="155"/>
-      <c r="R30" s="155"/>
+      <c r="A30" s="129"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="R30" s="129"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="155"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="155"/>
+      <c r="A31" s="129"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="129"/>
+      <c r="R31" s="129"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="155"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="155"/>
-      <c r="P32" s="155"/>
-      <c r="Q32" s="155"/>
-      <c r="R32" s="155"/>
+      <c r="A32" s="129"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="129"/>
+      <c r="Q32" s="129"/>
+      <c r="R32" s="129"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="155"/>
-      <c r="P33" s="155"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="155"/>
+      <c r="A33" s="129"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="155"/>
-      <c r="P34" s="155"/>
-      <c r="Q34" s="155"/>
-      <c r="R34" s="155"/>
+      <c r="A34" s="129"/>
+      <c r="B34" s="129"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="155"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-      <c r="P35" s="155"/>
-      <c r="Q35" s="155"/>
-      <c r="R35" s="155"/>
+      <c r="A35" s="129"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="129"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="129"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="155"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-      <c r="P36" s="155"/>
-      <c r="Q36" s="155"/>
-      <c r="R36" s="155"/>
+      <c r="A36" s="129"/>
+      <c r="B36" s="129"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="129"/>
+      <c r="K36" s="129"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="129"/>
+      <c r="P36" s="129"/>
+      <c r="Q36" s="129"/>
+      <c r="R36" s="129"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-      <c r="P37" s="155"/>
-      <c r="Q37" s="155"/>
-      <c r="R37" s="155"/>
+      <c r="A37" s="129"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="129"/>
+      <c r="K37" s="129"/>
+      <c r="L37" s="129"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="129"/>
+      <c r="O37" s="129"/>
+      <c r="P37" s="129"/>
+      <c r="Q37" s="129"/>
+      <c r="R37" s="129"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -4206,6 +4206,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A27:R37"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:R26"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:R25"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:R24"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="E5:H6"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="I5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="A18:R18"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="A8:B11"/>
+    <mergeCell ref="L9:R11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="G8:K8"/>
@@ -4222,60 +4276,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="N5:O6"/>
     <mergeCell ref="H3:M3"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="A8:B11"/>
-    <mergeCell ref="L9:R11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="A18:R18"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="I5:K6"/>
-    <mergeCell ref="L5:M6"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="E5:H6"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A27:R37"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:R26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:R25"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:R24"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
